--- a/Proyecto/Medidas_Sensor.xlsx
+++ b/Proyecto/Medidas_Sensor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Lab-Sistemas-Electr-nicos\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1MII\Lab-Sistemas-Electr-nicos\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1E1AE7C-BCB6-4DAB-ABA5-FDFD251F4F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068E9E13-93A2-49FD-9F28-FDAED6DE2C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4C4E3B00-9772-4721-98DB-C714D04BF75B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4C4E3B00-9772-4721-98DB-C714D04BF75B}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -121,7 +121,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -158,7 +158,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -271,7 +271,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1619006000"/>
@@ -316,7 +316,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1619003920"/>
@@ -364,7 +364,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -373,7 +373,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -385,6 +385,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Curva de calibración ADXL335</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -410,7 +435,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -423,6 +448,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Medidas</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -461,10 +489,36 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.23347922134733159"/>
-                  <c:y val="-4.0131233595800522E-2"/>
+                  <c:x val="0.33986769958737428"/>
+                  <c:y val="-1.5561831860800655E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 0,0322x + 1,644</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -490,7 +544,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -565,6 +619,8 @@
         <c:axId val="1545166736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="-12"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -593,7 +649,15 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>n</a:t>
+                  <a:t>n (m/s</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="30000"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -624,7 +688,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -662,17 +726,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1545161744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1545161744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="1.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -690,20 +757,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -725,8 +778,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Salida</a:t>
+                  <a:t>Tensión</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> de salida (V)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -755,7 +813,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -793,7 +851,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1545166736"/>
@@ -835,7 +893,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -872,7 +930,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2031,15 +2089,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:colOff>426719</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>7619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2068,7 +2126,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2367,12 +2425,12 @@
   <dimension ref="A3:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -2386,7 +2444,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2407,7 +2465,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2425,7 +2483,7 @@
         <v>0.69000000000000017</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2449,7 +2507,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>135</v>
       </c>
@@ -2464,7 +2522,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2485,7 +2543,7 @@
         <v>0.12000000000000011</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -2493,7 +2551,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>6</v>
       </c>
